--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{AA4EFC8F-E322-411E-A187-32999C3ACAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3D45E-3A71-49BB-AC09-65CBFAFC50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4570" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25810" yWindow="4780" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Categoria_Lista">Configuração!$B$5:$B$10</definedName>
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
-    <definedName name="Funcionário_Lista">Configuração!$C$5:$C$10</definedName>
+    <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Categoria</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Considerações Finais</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Guilherme Leal</t>
+  </si>
+  <si>
+    <t>Gulherme Duarte</t>
+  </si>
+  <si>
+    <t>Guilerme Santos</t>
+  </si>
+  <si>
+    <t>Ricardo Amaral</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
@@ -792,11 +810,11 @@
     <xf numFmtId="3" fontId="9" fillId="2" borderId="6" xfId="15">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -855,14 +873,7 @@
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="27" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -913,8 +924,8 @@
   </dxfs>
   <tableStyles count="1" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Estilo de Tabela Personalizado" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1091,23 +1102,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:K30" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B4:K30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L30" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B4:L30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" dataCellStyle="Texto"/>
+    <tableColumn id="3" xr3:uid="{B833AB72-8646-4CE5-98B8-9D4D27103F03}" name="Responsável" dataCellStyle="Texto"/>
     <tableColumn id="6" xr3:uid="{3D5F6782-B25F-45BE-897D-AA6103B5C9A5}" name="Etapa" dataCellStyle="Texto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria" dataCellStyle="Texto"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimado_x000a_Início" dataCellStyle="Data"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimado _x000a_Término" dataCellStyle="Data"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Duração Estimada (em dias)" dataCellStyle="Duração estimada">
-      <calculatedColumnFormula>IF(COUNTA('Controlador de projetos'!$E5,'Controlador de projetos'!$F5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E5,'Controlador de projetos'!$F5,FALSE))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(COUNTA('Controlador de projetos'!$F5,'Controlador de projetos'!$G5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F5,'Controlador de projetos'!$G5,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Real _x000a_Início" dataCellStyle="Início Real"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Real_x000a_Término" dataCellStyle="Data"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Duração Real (em dias)" dataCellStyle="Coluna cinza">
-      <calculatedColumnFormula>IF(COUNTA('Controlador de projetos'!$H5,'Controlador de projetos'!$I5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H5,'Controlador de projetos'!$I5,FALSE))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(COUNTA('Controlador de projetos'!$I5,'Controlador de projetos'!$J5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I5,'Controlador de projetos'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Anotações" dataDxfId="2" dataCellStyle="Texto"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Anotações" dataDxfId="1" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela Personalizado" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1119,10 +1131,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela_de_categorias_e_funcionários" displayName="Tabela_de_categorias_e_funcionários" ref="B4:C10" totalsRowShown="0">
-  <autoFilter ref="B4:C10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela_de_categorias_e_funcionários" displayName="Tabela_de_categorias_e_funcionários" ref="B4:D10" totalsRowShown="0">
+  <autoFilter ref="B4:D10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nome da Categoria" dataCellStyle="Texto"/>
+    <tableColumn id="3" xr3:uid="{27753AE9-2279-417F-B1AE-4F2FE483D347}" name="Responsável" dataCellStyle="Texto"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Etapa" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela Personalizado" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1365,670 +1378,733 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="4" width="30" customWidth="1"/>
-    <col min="5" max="6" width="15.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" customWidth="1"/>
-    <col min="11" max="11" width="25.58203125" customWidth="1"/>
-    <col min="12" max="12" width="2.58203125" customWidth="1"/>
+    <col min="2" max="5" width="30" customWidth="1"/>
+    <col min="6" max="7" width="15.58203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="10" width="15.58203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" customWidth="1"/>
+    <col min="12" max="12" width="25.58203125" customWidth="1"/>
+    <col min="13" max="13" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="65.150000000000006" customHeight="1">
+    <row r="1" spans="1:12" ht="65.150000000000006" customHeight="1">
       <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1"/>
-    <row r="4" spans="1:11" ht="55" customHeight="1">
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1"/>
+    <row r="4" spans="1:12" ht="55" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>45713</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>45714</v>
       </c>
-      <c r="G5" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E5,'Controlador de projetos'!$F5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E5,'Controlador de projetos'!$F5,FALSE)+1)</f>
+      <c r="H5" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F5,'Controlador de projetos'!$G5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F5,'Controlador de projetos'!$G5,FALSE)+1)</f>
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="20">
         <v>45713</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H5,'Controlador de projetos'!$I5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H5,'Controlador de projetos'!$I5,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1">
+      <c r="J5" s="13">
+        <v>45713</v>
+      </c>
+      <c r="K5" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I5,'Controlador de projetos'!$J5)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I5,'Controlador de projetos'!$J5,FALSE)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>45714</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>45716</v>
       </c>
-      <c r="G6" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E6,'Controlador de projetos'!$F6)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E6,'Controlador de projetos'!$F6,FALSE)+1)</f>
+      <c r="H6" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F6,'Controlador de projetos'!$G6)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F6,'Controlador de projetos'!$G6,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I6" s="20">
         <v>45714</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H6,'Controlador de projetos'!$I6)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H6,'Controlador de projetos'!$I6,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1">
+      <c r="J6" s="13">
+        <v>45716</v>
+      </c>
+      <c r="K6" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I6,'Controlador de projetos'!$J6)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I6,'Controlador de projetos'!$J6,FALSE)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>45714</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>45716</v>
       </c>
-      <c r="G7" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E7,'Controlador de projetos'!$F7)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E7,'Controlador de projetos'!$F7,FALSE)+1)</f>
+      <c r="H7" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F7,'Controlador de projetos'!$G7)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F7,'Controlador de projetos'!$G7,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="21">
         <v>45714</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H7,'Controlador de projetos'!$I7)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H7,'Controlador de projetos'!$I7,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1">
+      <c r="J7" s="13">
+        <v>45716</v>
+      </c>
+      <c r="K7" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I7,'Controlador de projetos'!$J7)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I7,'Controlador de projetos'!$J7,FALSE)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>45713</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G8" s="13">
         <v>45714</v>
       </c>
-      <c r="G8" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E8,'Controlador de projetos'!$F8)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E8,'Controlador de projetos'!$F8,FALSE)+1)</f>
+      <c r="H8" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F8,'Controlador de projetos'!$G8)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F8,'Controlador de projetos'!$G8,FALSE)+1)</f>
         <v>2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="I8" s="21">
         <v>45713</v>
       </c>
-      <c r="I8" s="14">
+      <c r="J8" s="14">
         <v>45713</v>
       </c>
-      <c r="J8" s="15">
-        <f>IF(COUNTA('Controlador de projetos'!$H8,'Controlador de projetos'!$I8)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H8,'Controlador de projetos'!$I8,FALSE)+1)</f>
+      <c r="K8" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I8,'Controlador de projetos'!$J8)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I8,'Controlador de projetos'!$J8,FALSE)+1)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <v>45713</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="13">
         <v>45714</v>
       </c>
-      <c r="G9" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E9,'Controlador de projetos'!$F9)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E9,'Controlador de projetos'!$F9,FALSE)+1)</f>
+      <c r="H9" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F9,'Controlador de projetos'!$G9)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F9,'Controlador de projetos'!$G9,FALSE)+1)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="I9" s="21">
         <v>45713</v>
       </c>
-      <c r="I9" s="14">
+      <c r="J9" s="14">
         <v>45713</v>
       </c>
-      <c r="J9" s="15">
-        <f>IF(COUNTA('Controlador de projetos'!$H9,'Controlador de projetos'!$I9)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H9,'Controlador de projetos'!$I9,FALSE)+1)</f>
+      <c r="K9" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I9,'Controlador de projetos'!$J9)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I9,'Controlador de projetos'!$J9,FALSE)+1)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <v>45714</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="13">
         <v>45716</v>
       </c>
-      <c r="G10" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E10,'Controlador de projetos'!$F10)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E10,'Controlador de projetos'!$F10,FALSE)+1)</f>
+      <c r="H10" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F10,'Controlador de projetos'!$G10)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F10,'Controlador de projetos'!$G10,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="I10" s="21">
         <v>45716</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H10,'Controlador de projetos'!$I10)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H10,'Controlador de projetos'!$I10,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="J10" s="13">
+        <v>45714</v>
+      </c>
+      <c r="K10" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I10,'Controlador de projetos'!$J10)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I10,'Controlador de projetos'!$J10,FALSE)+1)</f>
+        <v>-3</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <v>45714</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="13">
         <v>45716</v>
       </c>
-      <c r="G11" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E11,'Controlador de projetos'!$F11)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E11,'Controlador de projetos'!$F11,FALSE)+1)</f>
+      <c r="H11" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F11,'Controlador de projetos'!$G11)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F11,'Controlador de projetos'!$G11,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="14">
-        <v>45717</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H11,'Controlador de projetos'!$I11)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H11,'Controlador de projetos'!$I11,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="I11" s="20">
+        <v>45714</v>
+      </c>
+      <c r="J11" s="13">
+        <v>45714</v>
+      </c>
+      <c r="K11" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I11,'Controlador de projetos'!$J11)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I11,'Controlador de projetos'!$J11,FALSE)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>45714</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>45716</v>
       </c>
-      <c r="G12" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E12,'Controlador de projetos'!$F12)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E12,'Controlador de projetos'!$F12,FALSE)+1)</f>
+      <c r="H12" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F12,'Controlador de projetos'!$G12)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F12,'Controlador de projetos'!$G12,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H12" s="14">
-        <v>45717</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H12,'Controlador de projetos'!$I12)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H12,'Controlador de projetos'!$I12,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="I12" s="20">
+        <v>45714</v>
+      </c>
+      <c r="J12" s="13">
+        <v>45714</v>
+      </c>
+      <c r="K12" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I12,'Controlador de projetos'!$J12)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I12,'Controlador de projetos'!$J12,FALSE)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>45714</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>45716</v>
       </c>
-      <c r="G13" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$E13,'Controlador de projetos'!$F13)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E13,'Controlador de projetos'!$F13,FALSE)+1)</f>
+      <c r="H13" s="19">
+        <f>IF(COUNTA('Controlador de projetos'!$F13,'Controlador de projetos'!$G13)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F13,'Controlador de projetos'!$G13,FALSE)+1)</f>
         <v>3</v>
       </c>
-      <c r="H13" s="14">
-        <v>45717</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H13,'Controlador de projetos'!$I13)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H13,'Controlador de projetos'!$I13,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+      <c r="I13" s="20">
+        <v>45714</v>
+      </c>
+      <c r="J13" s="13">
+        <v>45716</v>
+      </c>
+      <c r="K13" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I13,'Controlador de projetos'!$J13)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I13,'Controlador de projetos'!$J13,FALSE)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E14,'Controlador de projetos'!$F14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E14,'Controlador de projetos'!$F14,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H14,'Controlador de projetos'!$I14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H14,'Controlador de projetos'!$I14,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
+      <c r="G14" s="13"/>
+      <c r="H14" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F14,'Controlador de projetos'!$G14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F14,'Controlador de projetos'!$G14,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I14,'Controlador de projetos'!$J14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I14,'Controlador de projetos'!$J14,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E15,'Controlador de projetos'!$F15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E15,'Controlador de projetos'!$F15,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H15,'Controlador de projetos'!$I15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H15,'Controlador de projetos'!$I15,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
+      <c r="G15" s="13"/>
+      <c r="H15" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F15,'Controlador de projetos'!$G15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F15,'Controlador de projetos'!$G15,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I15,'Controlador de projetos'!$J15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I15,'Controlador de projetos'!$J15,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E16,'Controlador de projetos'!$F16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E16,'Controlador de projetos'!$F16,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H16,'Controlador de projetos'!$I16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H16,'Controlador de projetos'!$I16,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1">
+      <c r="G16" s="13"/>
+      <c r="H16" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F16,'Controlador de projetos'!$G16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F16,'Controlador de projetos'!$G16,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I16,'Controlador de projetos'!$J16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I16,'Controlador de projetos'!$J16,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E17,'Controlador de projetos'!$F17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E17,'Controlador de projetos'!$F17,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H17,'Controlador de projetos'!$I17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H17,'Controlador de projetos'!$I17,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1">
+      <c r="G17" s="13"/>
+      <c r="H17" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F17,'Controlador de projetos'!$G17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F17,'Controlador de projetos'!$G17,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I17,'Controlador de projetos'!$J17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I17,'Controlador de projetos'!$J17,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E18,'Controlador de projetos'!$F18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E18,'Controlador de projetos'!$F18,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H18,'Controlador de projetos'!$I18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H18,'Controlador de projetos'!$I18,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="2:11" ht="30" customHeight="1">
+      <c r="G18" s="13"/>
+      <c r="H18" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F18,'Controlador de projetos'!$G18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F18,'Controlador de projetos'!$G18,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I18,'Controlador de projetos'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I18,'Controlador de projetos'!$J18,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E19,'Controlador de projetos'!$F19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E19,'Controlador de projetos'!$F19,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H19,'Controlador de projetos'!$I19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H19,'Controlador de projetos'!$I19,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" ht="30" customHeight="1">
+      <c r="G19" s="13"/>
+      <c r="H19" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E20,'Controlador de projetos'!$F20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E20,'Controlador de projetos'!$F20,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H20,'Controlador de projetos'!$I20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H20,'Controlador de projetos'!$I20,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" ht="30" customHeight="1">
+      <c r="G20" s="13"/>
+      <c r="H20" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F20,'Controlador de projetos'!$G20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F20,'Controlador de projetos'!$G20,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I20,'Controlador de projetos'!$J20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I20,'Controlador de projetos'!$J20,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="2:12" ht="30" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E21,'Controlador de projetos'!$F21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E21,'Controlador de projetos'!$F21,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H21,'Controlador de projetos'!$I21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H21,'Controlador de projetos'!$I21,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1">
+      <c r="G21" s="13"/>
+      <c r="H21" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I21,'Controlador de projetos'!$J21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I21,'Controlador de projetos'!$J21,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E22,'Controlador de projetos'!$F22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E22,'Controlador de projetos'!$F22,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H22,'Controlador de projetos'!$I22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H22,'Controlador de projetos'!$I22,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" customHeight="1">
+      <c r="G22" s="13"/>
+      <c r="H22" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I22,'Controlador de projetos'!$J22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I22,'Controlador de projetos'!$J22,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="2:12" ht="30" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E23,'Controlador de projetos'!$F23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E23,'Controlador de projetos'!$F23,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H23,'Controlador de projetos'!$I23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H23,'Controlador de projetos'!$I23,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" ht="30" customHeight="1">
+      <c r="G23" s="13"/>
+      <c r="H23" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F23,'Controlador de projetos'!$G23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F23,'Controlador de projetos'!$G23,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I23,'Controlador de projetos'!$J23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I23,'Controlador de projetos'!$J23,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" ht="30" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E24,'Controlador de projetos'!$F24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E24,'Controlador de projetos'!$F24,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H24,'Controlador de projetos'!$I24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H24,'Controlador de projetos'!$I24,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1">
+      <c r="G24" s="13"/>
+      <c r="H24" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F24,'Controlador de projetos'!$G24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F24,'Controlador de projetos'!$G24,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I24,'Controlador de projetos'!$J24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I24,'Controlador de projetos'!$J24,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="2:12" ht="30" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E25,'Controlador de projetos'!$F25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E25,'Controlador de projetos'!$F25,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H25,'Controlador de projetos'!$I25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H25,'Controlador de projetos'!$I25,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1">
+      <c r="G25" s="13"/>
+      <c r="H25" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F25,'Controlador de projetos'!$G25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F25,'Controlador de projetos'!$G25,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I25,'Controlador de projetos'!$J25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I25,'Controlador de projetos'!$J25,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="2:12" ht="30" customHeight="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E26,'Controlador de projetos'!$F26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E26,'Controlador de projetos'!$F26,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H26,'Controlador de projetos'!$I26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H26,'Controlador de projetos'!$I26,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1">
+      <c r="G26" s="13"/>
+      <c r="H26" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F26,'Controlador de projetos'!$G26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F26,'Controlador de projetos'!$G26,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I26,'Controlador de projetos'!$J26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I26,'Controlador de projetos'!$J26,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="2:12" ht="30" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E27,'Controlador de projetos'!$F27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E27,'Controlador de projetos'!$F27,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H27,'Controlador de projetos'!$I27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H27,'Controlador de projetos'!$I27,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1">
+      <c r="G27" s="13"/>
+      <c r="H27" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F27,'Controlador de projetos'!$G27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F27,'Controlador de projetos'!$G27,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I27,'Controlador de projetos'!$J27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I27,'Controlador de projetos'!$J27,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="2:12" ht="30" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E28,'Controlador de projetos'!$F28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E28,'Controlador de projetos'!$F28,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H28,'Controlador de projetos'!$I28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H28,'Controlador de projetos'!$I28,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11" ht="30" customHeight="1">
+      <c r="G28" s="13"/>
+      <c r="H28" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F28,'Controlador de projetos'!$G28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F28,'Controlador de projetos'!$G28,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I28,'Controlador de projetos'!$J28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I28,'Controlador de projetos'!$J28,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="2:12" ht="30" customHeight="1">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E29,'Controlador de projetos'!$F29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E29,'Controlador de projetos'!$F29,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H29,'Controlador de projetos'!$I29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H29,'Controlador de projetos'!$I29,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="2:11" ht="30" customHeight="1">
+      <c r="G29" s="13"/>
+      <c r="H29" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F29,'Controlador de projetos'!$G29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F29,'Controlador de projetos'!$G29,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I29,'Controlador de projetos'!$J29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I29,'Controlador de projetos'!$J29,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" ht="30" customHeight="1">
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="19" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$E30,'Controlador de projetos'!$F30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$E30,'Controlador de projetos'!$F30,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$H30,'Controlador de projetos'!$I30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$H30,'Controlador de projetos'!$I30,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="K30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F30,'Controlador de projetos'!$G30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F30,'Controlador de projetos'!$G30,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I30,'Controlador de projetos'!$J30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I30,'Controlador de projetos'!$J30,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L30" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J5:J30">
+  <conditionalFormatting sqref="K5:K30">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>(ABS((J5-G5))/G5)&gt;Sinalizador_Porcentagem</formula>
+      <formula>(ABS((K5-H5))/H5)&gt;Sinalizador_Porcentagem</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira projetos nesta planilha do controle de projetos. Defina a % acima/abaixo para sinalizar em D2. O trabalho real em horas e a duração real em dias destacarão valores acima/abaixo com negrito, fonte vermelha e um ícone de bandeira nas colunas K e M " sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="D5:D30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Categoria_Lista</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes de projetos nesta coluna" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione o Nome da categoria na lista suspensa em cada célula nessa coluna. As opções na lista são definidas na planilha Configuração. Pressione Alt+seta para baixo para navegar pela lista, depois, ENTER para fazer uma seleção" sqref="D4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de início estimada do projeto nesta coluna" sqref="E4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de término estimada do projeto nesta coluna" sqref="F4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a duração estimada do projeto em dias nesta coluna" sqref="G4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de início real do projeto nesta coluna" sqref="H4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de término real do projeto nesta coluna" sqref="I4" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a duração real de projeto em dias. Valores que atendem aos critérios Acima/Abaixo são destacados em negrito vermelho e geram um ícone de sinalizador na coluna M à esquerda" sqref="J4" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira anotações para os projetos nesta coluna" sqref="K4" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes de projetos nesta coluna" sqref="B4:D4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Selecione o Nome da categoria na lista suspensa em cada célula nessa coluna. As opções na lista são definidas na planilha Configuração. Pressione Alt+seta para baixo para navegar pela lista, depois, ENTER para fazer uma seleção" sqref="E4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de início estimada do projeto nesta coluna" sqref="F4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de término estimada do projeto nesta coluna" sqref="G4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a duração estimada do projeto em dias nesta coluna" sqref="H4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de início real do projeto nesta coluna" sqref="I4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a data de término real do projeto nesta coluna" sqref="J4" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira a duração real de projeto em dias. Valores que atendem aos critérios Acima/Abaixo são destacados em negrito vermelho e geram um ícone de sinalizador na coluna M à esquerda" sqref="K4" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira anotações para os projetos nesta coluna" sqref="L4" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2042,10 +2118,16 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{196A1F23-3D67-40CE-AED9-440FECA92F3C}">
           <x14:formula1>
-            <xm:f>Configuração!$C$5:$C$8</xm:f>
+            <xm:f>Configuração!$D$5:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9316C738-7C0B-41CA-ADB5-1A14C6ABE9FF}">
+          <x14:formula1>
+            <xm:f>Configuração!$C$5:$C$10</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C30</xm:sqref>
         </x14:dataValidation>
@@ -2061,82 +2143,102 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="3" width="25.58203125" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" customWidth="1"/>
+    <col min="2" max="4" width="25.58203125" customWidth="1"/>
+    <col min="5" max="5" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="65.150000000000006" customHeight="1">
+    <row r="1" spans="2:4" ht="65.150000000000006" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="20.25" customHeight="1"/>
-    <row r="3" spans="2:3" ht="20.25" customHeight="1"/>
-    <row r="4" spans="2:3" ht="50.15" customHeight="1">
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="2:4" ht="20.25" customHeight="1"/>
+    <row r="3" spans="2:4" ht="20.25" customHeight="1"/>
+    <row r="4" spans="2:4" ht="50.15" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1">
+    <row r="5" spans="2:4" ht="30" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1">
+    <row r="6" spans="2:4" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1">
+    <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1">
+    <row r="8" spans="2:4" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1">
+    <row r="9" spans="2:4" ht="30" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1">
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="A planilha de configuração contém uma lista personalizável de categorias de projetos e nomes de funcionários. Essas listas são usadas como listas suspensas na planilha Controlador de projetos. As listas não precisam do mesmo número de itens entre elas " sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes dos funcionários nesta coluna que serão usados como opções na lista suspensa Atribuído a na planilha Controlador de Projetos" sqref="C4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira as categorias de projetos nesta coluna que serão usadas como opções na lista suspensa Categoria na planilha Controlador de Projetos" sqref="B4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes dos funcionários nesta coluna que serão usados como opções na lista suspensa Atribuído a na planilha Controlador de Projetos" sqref="D4" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira as categorias de projetos nesta coluna que serão usadas como opções na lista suspensa Categoria na planilha Controlador de Projetos" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B3D45E-3A71-49BB-AC09-65CBFAFC50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DD7D9-152C-4EC8-85FA-2A60B9105B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25810" yWindow="4780" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -1382,7 +1383,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" sqref="A1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2108,7 +2109,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DD7D9-152C-4EC8-85FA-2A60B9105B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562463B-9BA7-40A4-B14C-927B904CCE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25810" yWindow="4780" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>Categoria</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>Gustavo Guimarães</t>
+  </si>
+  <si>
+    <t>População do Sumário</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1389,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L13"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1764,17 +1770,31 @@
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="19" t="str">
+      <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G14" s="13">
+        <v>45723</v>
+      </c>
+      <c r="H14" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F14,'Controlador de projetos'!$G14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F14,'Controlador de projetos'!$G14,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="I14" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45719</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I14,'Controlador de projetos'!$J14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I14,'Controlador de projetos'!$J14,FALSE)+1)</f>
@@ -2148,7 +2168,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2215,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>20</v>
@@ -2226,13 +2246,15 @@
         <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
   </sheetData>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562463B-9BA7-40A4-B14C-927B904CCE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85E691-D3EC-4645-AC43-2DE99BD9F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25810" yWindow="4780" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24460" yWindow="5640" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Categoria</t>
   </si>
@@ -164,6 +164,33 @@
   </si>
   <si>
     <t>População do Sumário</t>
+  </si>
+  <si>
+    <t>Proposta Anaíltca</t>
+  </si>
+  <si>
+    <t>Análise Exploratória</t>
+  </si>
+  <si>
+    <t>Scripts Análise Exploratória</t>
+  </si>
+  <si>
+    <t>Esboço Sotory Telling</t>
+  </si>
+  <si>
+    <t>Revisão Scripts A.E.</t>
+  </si>
+  <si>
+    <t>A. E. no relatório</t>
+  </si>
+  <si>
+    <t>Video Story Telling</t>
+  </si>
+  <si>
+    <t>Relatório Final</t>
+  </si>
+  <si>
+    <t>Atualizado em 2025-03-07</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1416,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1414,7 +1441,9 @@
     <row r="2" spans="1:12" ht="20.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
@@ -1795,23 +1824,37 @@
       <c r="I14" s="14">
         <v>45719</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15" t="str">
+      <c r="J14" s="13">
+        <v>45723</v>
+      </c>
+      <c r="K14" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I14,'Controlador de projetos'!$J14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I14,'Controlador de projetos'!$J14,FALSE)+1)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="19" t="str">
+      <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G15" s="13">
+        <v>45741</v>
+      </c>
+      <c r="H15" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F15,'Controlador de projetos'!$G15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F15,'Controlador de projetos'!$G15,FALSE)+1)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
@@ -1822,15 +1865,27 @@
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="19" t="str">
+      <c r="B16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G16" s="13">
+        <v>45741</v>
+      </c>
+      <c r="H16" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F16,'Controlador de projetos'!$G16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F16,'Controlador de projetos'!$G16,FALSE)+1)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -1841,15 +1896,27 @@
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" ht="30" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="19" t="str">
+      <c r="B17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G17" s="13">
+        <v>45741</v>
+      </c>
+      <c r="H17" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F17,'Controlador de projetos'!$G17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F17,'Controlador de projetos'!$G17,FALSE)+1)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
@@ -1860,15 +1927,27 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="19" t="str">
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45747</v>
+      </c>
+      <c r="G18" s="13">
+        <v>45772</v>
+      </c>
+      <c r="H18" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F18,'Controlador de projetos'!$G18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F18,'Controlador de projetos'!$G18,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="13"/>
@@ -1879,15 +1958,27 @@
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="19" t="str">
+      <c r="B19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45747</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45772</v>
+      </c>
+      <c r="H19" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="13"/>
@@ -1898,15 +1989,27 @@
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="19" t="str">
+      <c r="B20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45747</v>
+      </c>
+      <c r="G20" s="13">
+        <v>45772</v>
+      </c>
+      <c r="H20" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F20,'Controlador de projetos'!$G20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F20,'Controlador de projetos'!$G20,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="13"/>
@@ -1917,15 +2020,27 @@
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="19" t="str">
+      <c r="B21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G21" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H21" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="13"/>
@@ -1936,15 +2051,27 @@
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="19" t="str">
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G22" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H22" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="13"/>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85E691-D3EC-4645-AC43-2DE99BD9F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1792F0B-94A9-4FAE-8AB4-DA55E6597837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24460" yWindow="5640" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -1416,7 +1416,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" sqref="A1:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2256,7 +2256,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1792F0B-94A9-4FAE-8AB4-DA55E6597837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FD702-4555-411B-8C9E-EB473CB164EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="5640" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25120" yWindow="4950" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>Categoria</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Atualizado em 2025-03-07</t>
+  </si>
+  <si>
+    <t>Revisão de Seção Objetivos</t>
+  </si>
+  <si>
+    <t>Revisão de Organização do Documento - Conforme comentário Fase 1</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +855,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1136,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L30" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="B4:L30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L32" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B4:L32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" dataCellStyle="Texto"/>
     <tableColumn id="3" xr3:uid="{B833AB72-8646-4CE5-98B8-9D4D27103F03}" name="Responsável" dataCellStyle="Texto"/>
@@ -1412,11 +1424,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L30"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1812,14 +1824,14 @@
         <v>10</v>
       </c>
       <c r="F14" s="13">
-        <v>45719</v>
+        <v>45732</v>
       </c>
       <c r="G14" s="13">
         <v>45723</v>
       </c>
       <c r="H14" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F14,'Controlador de projetos'!$G14)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F14,'Controlador de projetos'!$G14,FALSE)+1)</f>
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="I14" s="14">
         <v>45719</v>
@@ -1847,16 +1859,18 @@
         <v>10</v>
       </c>
       <c r="F15" s="13">
-        <v>45719</v>
+        <v>45732</v>
       </c>
       <c r="G15" s="13">
         <v>45741</v>
       </c>
       <c r="H15" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F15,'Controlador de projetos'!$G15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F15,'Controlador de projetos'!$G15,FALSE)+1)</f>
-        <v>23</v>
-      </c>
-      <c r="I15" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
+        <v>45740</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I15,'Controlador de projetos'!$J15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I15,'Controlador de projetos'!$J15,FALSE)+1)</f>
@@ -1878,16 +1892,18 @@
         <v>21</v>
       </c>
       <c r="F16" s="13">
-        <v>45719</v>
+        <v>45732</v>
       </c>
       <c r="G16" s="13">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="H16" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F16,'Controlador de projetos'!$G16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F16,'Controlador de projetos'!$G16,FALSE)+1)</f>
-        <v>23</v>
-      </c>
-      <c r="I16" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="14">
+        <v>45740</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I16,'Controlador de projetos'!$J16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I16,'Controlador de projetos'!$J16,FALSE)+1)</f>
@@ -1909,16 +1925,18 @@
         <v>12</v>
       </c>
       <c r="F17" s="13">
-        <v>45719</v>
+        <v>45732</v>
       </c>
       <c r="G17" s="13">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="H17" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F17,'Controlador de projetos'!$G17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F17,'Controlador de projetos'!$G17,FALSE)+1)</f>
-        <v>23</v>
-      </c>
-      <c r="I17" s="14"/>
+        <v>9</v>
+      </c>
+      <c r="I17" s="14">
+        <v>45733</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I17,'Controlador de projetos'!$J17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I17,'Controlador de projetos'!$J17,FALSE)+1)</f>
@@ -1928,69 +1946,71 @@
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1">
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F18" s="13">
-        <v>45747</v>
+        <v>45732</v>
       </c>
       <c r="G18" s="13">
-        <v>45772</v>
+        <v>45740</v>
       </c>
       <c r="H18" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F18,'Controlador de projetos'!$G18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F18,'Controlador de projetos'!$G18,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I18" s="14"/>
+        <f>IF(COUNTA('Controlador de projetos'!$F18,'Controlador de projetos'!$G18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F18,'Controlador de projetos'!$G18,FALSE))</f>
+        <v>8</v>
+      </c>
+      <c r="I18" s="22">
+        <v>45733</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I18,'Controlador de projetos'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I18,'Controlador de projetos'!$J18,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1">
+        <f>IF(COUNTA('Controlador de projetos'!$I18,'Controlador de projetos'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I18,'Controlador de projetos'!$J18,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" ht="42.5" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="13">
+        <v>45742</v>
+      </c>
+      <c r="G19" s="13">
         <v>45747</v>
       </c>
-      <c r="G19" s="13">
-        <v>45772</v>
-      </c>
       <c r="H19" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I19" s="14"/>
+        <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="22"/>
       <c r="J19" s="13"/>
       <c r="K19" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="L19" s="12"/>
+        <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>36</v>
@@ -1999,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" s="13">
         <v>45747</v>
@@ -2021,22 +2041,22 @@
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
       <c r="B21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="13">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="G21" s="13">
-        <v>45800</v>
+        <v>45772</v>
       </c>
       <c r="H21" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE)+1)</f>
@@ -2052,22 +2072,22 @@
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="13">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="G22" s="13">
-        <v>45800</v>
+        <v>45772</v>
       </c>
       <c r="H22" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE)+1)</f>
@@ -2082,15 +2102,27 @@
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="30" customHeight="1">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="19" t="str">
+      <c r="B23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G23" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H23" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F23,'Controlador de projetos'!$G23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F23,'Controlador de projetos'!$G23,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="13"/>
@@ -2101,15 +2133,27 @@
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="19" t="str">
+      <c r="B24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G24" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H24" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F24,'Controlador de projetos'!$G24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F24,'Controlador de projetos'!$G24,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="13"/>
@@ -2215,33 +2259,71 @@
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="2:12" ht="30" customHeight="1">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="19" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$F30,'Controlador de projetos'!$G30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F30,'Controlador de projetos'!$G30,FALSE)+1)</f>
         <v/>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I30,'Controlador de projetos'!$J30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I30,'Controlador de projetos'!$J30,FALSE)+1)</f>
         <v/>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F31,'Controlador de projetos'!$G31)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F31,'Controlador de projetos'!$G31,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I31,'Controlador de projetos'!$J31)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I31,'Controlador de projetos'!$J31,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="2:12" ht="30" customHeight="1">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F32,'Controlador de projetos'!$G32)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F32,'Controlador de projetos'!$G32,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I32,'Controlador de projetos'!$J32)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I32,'Controlador de projetos'!$J32,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L32" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K5:K30">
+  <conditionalFormatting sqref="K5:K32">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>(ABS((K5-H5))/H5)&gt;Sinalizador_Porcentagem</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira projetos nesta planilha do controle de projetos. Defina a % acima/abaixo para sinalizar em D2. O trabalho real em horas e a duração real em dias destacarão valores acima/abaixo com negrito, fonte vermelha e um ícone de bandeira nas colunas K e M " sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Categoria_Lista</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes de projetos nesta coluna" sqref="B4:D4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -2271,13 +2353,13 @@
           <x14:formula1>
             <xm:f>Configuração!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D30</xm:sqref>
+          <xm:sqref>D5:D32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9316C738-7C0B-41CA-ADB5-1A14C6ABE9FF}">
           <x14:formula1>
             <xm:f>Configuração!$C$5:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C30</xm:sqref>
+          <xm:sqref>C5:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8FD702-4555-411B-8C9E-EB473CB164EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63459D-CAD1-4561-BA15-83FAFBC23880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25120" yWindow="4950" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,12 +855,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1428,7 +1422,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1967,15 +1961,17 @@
         <f>IF(COUNTA('Controlador de projetos'!$F18,'Controlador de projetos'!$G18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F18,'Controlador de projetos'!$G18,FALSE))</f>
         <v>8</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="14">
         <v>45733</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15" t="str">
+      <c r="J18" s="13">
+        <v>45735</v>
+      </c>
+      <c r="K18" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I18,'Controlador de projetos'!$J18)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I18,'Controlador de projetos'!$J18,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L18" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="2:12" ht="42.5" customHeight="1">
       <c r="B19" s="12" t="s">
@@ -1991,22 +1987,26 @@
         <v>10</v>
       </c>
       <c r="F19" s="13">
-        <v>45742</v>
+        <v>45732</v>
       </c>
       <c r="G19" s="13">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="H19" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE))</f>
-        <v>5</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="I19" s="14">
+        <v>45737</v>
+      </c>
+      <c r="J19" s="13">
+        <v>45739</v>
+      </c>
+      <c r="K19" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L19" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="12" t="s">

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC63459D-CAD1-4561-BA15-83FAFBC23880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF2C25-01C2-4D24-BA92-263DAFF1BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25120" yWindow="4950" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="5630" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>Categoria</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Revisão de Organização do Documento - Conforme comentário Fase 1</t>
+  </si>
+  <si>
+    <t>Análise Feriados</t>
+  </si>
+  <si>
+    <t>Análise Desemprego</t>
+  </si>
+  <si>
+    <t>Análise temperatura</t>
+  </si>
+  <si>
+    <t>Produção de gráficos e tabelas</t>
   </si>
 </sst>
 </file>
@@ -789,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +867,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1142,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L32" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="B4:L32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L36" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B4:L36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" dataCellStyle="Texto"/>
     <tableColumn id="3" xr3:uid="{B833AB72-8646-4CE5-98B8-9D4D27103F03}" name="Responsável" dataCellStyle="Texto"/>
@@ -1418,11 +1436,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1973,9 +1991,9 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="2:12" ht="42.5" customHeight="1">
+    <row r="19" spans="2:12" ht="30" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>35</v>
@@ -1984,172 +2002,180 @@
         <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="13">
         <v>45732</v>
       </c>
       <c r="G19" s="13">
-        <v>45740</v>
+        <v>45744</v>
       </c>
       <c r="H19" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE))</f>
-        <v>8</v>
-      </c>
-      <c r="I19" s="14">
-        <v>45737</v>
-      </c>
-      <c r="J19" s="13">
-        <v>45739</v>
-      </c>
-      <c r="K19" s="15">
+        <v>12</v>
+      </c>
+      <c r="I19" s="22">
+        <v>45736</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE))</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="12"/>
+        <v/>
+      </c>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13">
-        <v>45747</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="22">
+        <v>45742</v>
       </c>
       <c r="G20" s="13">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="H20" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F20,'Controlador de projetos'!$G20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F20,'Controlador de projetos'!$G20,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I20" s="14"/>
+        <f>IF(COUNTA('Controlador de projetos'!$F20,'Controlador de projetos'!$G20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F20,'Controlador de projetos'!$G20,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>45742</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I20,'Controlador de projetos'!$J20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I20,'Controlador de projetos'!$J20,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="L20" s="12"/>
+        <f>IF(COUNTA('Controlador de projetos'!$I20,'Controlador de projetos'!$J20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I20,'Controlador de projetos'!$J20,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
       <c r="B21" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="13">
-        <v>45747</v>
+        <v>10</v>
+      </c>
+      <c r="F21" s="22">
+        <v>45742</v>
       </c>
       <c r="G21" s="13">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="H21" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I21" s="14"/>
+        <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="22">
+        <v>45742</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I21,'Controlador de projetos'!$J21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I21,'Controlador de projetos'!$J21,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="L21" s="12"/>
+        <f>IF(COUNTA('Controlador de projetos'!$I21,'Controlador de projetos'!$J21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I21,'Controlador de projetos'!$J21,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13">
-        <v>45747</v>
+      <c r="F22" s="22">
+        <v>45742</v>
       </c>
       <c r="G22" s="13">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="H22" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I22" s="14"/>
+        <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="22">
+        <v>45742</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I22,'Controlador de projetos'!$J22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I22,'Controlador de projetos'!$J22,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1">
+        <f>IF(COUNTA('Controlador de projetos'!$I22,'Controlador de projetos'!$J22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I22,'Controlador de projetos'!$J22,FALSE))</f>
+        <v/>
+      </c>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="2:12" ht="42.5" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="13">
-        <v>45775</v>
+        <v>45732</v>
       </c>
       <c r="G23" s="13">
-        <v>45800</v>
+        <v>45740</v>
       </c>
       <c r="H23" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F23,'Controlador de projetos'!$G23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F23,'Controlador de projetos'!$G23,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I23,'Controlador de projetos'!$J23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I23,'Controlador de projetos'!$J23,FALSE)+1)</f>
-        <v/>
+        <f>IF(COUNTA('Controlador de projetos'!$F23,'Controlador de projetos'!$G23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F23,'Controlador de projetos'!$G23,FALSE))</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="14">
+        <v>45737</v>
+      </c>
+      <c r="J23" s="13">
+        <v>45739</v>
+      </c>
+      <c r="K23" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I23,'Controlador de projetos'!$J23)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I23,'Controlador de projetos'!$J23,FALSE))</f>
+        <v>2</v>
       </c>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="2:12" ht="30" customHeight="1">
       <c r="B24" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" s="13">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="G24" s="13">
-        <v>45800</v>
+        <v>45772</v>
       </c>
       <c r="H24" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F24,'Controlador de projetos'!$G24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F24,'Controlador de projetos'!$G24,FALSE)+1)</f>
@@ -2164,15 +2190,27 @@
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="19" t="str">
+      <c r="B25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45747</v>
+      </c>
+      <c r="G25" s="13">
+        <v>45772</v>
+      </c>
+      <c r="H25" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F25,'Controlador de projetos'!$G25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F25,'Controlador de projetos'!$G25,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="13"/>
@@ -2183,15 +2221,27 @@
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="2:12" ht="30" customHeight="1">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="19" t="str">
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45747</v>
+      </c>
+      <c r="G26" s="13">
+        <v>45772</v>
+      </c>
+      <c r="H26" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F26,'Controlador de projetos'!$G26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F26,'Controlador de projetos'!$G26,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -2202,15 +2252,27 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:12" ht="30" customHeight="1">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="19" t="str">
+      <c r="B27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G27" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H27" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F27,'Controlador de projetos'!$G27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F27,'Controlador de projetos'!$G27,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="13"/>
@@ -2221,15 +2283,27 @@
       <c r="L27" s="12"/>
     </row>
     <row r="28" spans="2:12" ht="30" customHeight="1">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="19" t="str">
+      <c r="B28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G28" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H28" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F28,'Controlador de projetos'!$G28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F28,'Controlador de projetos'!$G28,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="13"/>
@@ -2297,33 +2371,109 @@
       <c r="L31" s="12"/>
     </row>
     <row r="32" spans="2:12" ht="30" customHeight="1">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="19" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$F32,'Controlador de projetos'!$G32)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F32,'Controlador de projetos'!$G32,FALSE)+1)</f>
         <v/>
       </c>
       <c r="I32" s="14"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I32,'Controlador de projetos'!$J32)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I32,'Controlador de projetos'!$J32,FALSE)+1)</f>
         <v/>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="2:12" ht="30" customHeight="1">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F33,'Controlador de projetos'!$G33)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F33,'Controlador de projetos'!$G33,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I33,'Controlador de projetos'!$J33)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I33,'Controlador de projetos'!$J33,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="2:12" ht="30" customHeight="1">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F34,'Controlador de projetos'!$G34)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F34,'Controlador de projetos'!$G34,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I34,'Controlador de projetos'!$J34)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I34,'Controlador de projetos'!$J34,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="2:12" ht="30" customHeight="1">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F35,'Controlador de projetos'!$G35)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F35,'Controlador de projetos'!$G35,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I35,'Controlador de projetos'!$J35)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I35,'Controlador de projetos'!$J35,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="2:12" ht="30" customHeight="1">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F36,'Controlador de projetos'!$G36)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F36,'Controlador de projetos'!$G36,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I36,'Controlador de projetos'!$J36)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I36,'Controlador de projetos'!$J36,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L36" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K5:K32">
+  <conditionalFormatting sqref="K5:K36">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>(ABS((K5-H5))/H5)&gt;Sinalizador_Porcentagem</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira projetos nesta planilha do controle de projetos. Defina a % acima/abaixo para sinalizar em D2. O trabalho real em horas e a duração real em dias destacarão valores acima/abaixo com negrito, fonte vermelha e um ícone de bandeira nas colunas K e M " sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E32" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E36" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Categoria_Lista</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes de projetos nesta coluna" sqref="B4:D4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -2353,13 +2503,13 @@
           <x14:formula1>
             <xm:f>Configuração!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D32</xm:sqref>
+          <xm:sqref>D5:D36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9316C738-7C0B-41CA-ADB5-1A14C6ABE9FF}">
           <x14:formula1>
             <xm:f>Configuração!$C$5:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C32</xm:sqref>
+          <xm:sqref>C5:C36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF2C25-01C2-4D24-BA92-263DAFF1BB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15AE6E-BCA6-4D28-920B-096678F0312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="5630" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24620" yWindow="4840" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>Relatório Final</t>
   </si>
   <si>
-    <t>Atualizado em 2025-03-07</t>
-  </si>
-  <si>
     <t>Revisão de Seção Objetivos</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Produção de gráficos e tabelas</t>
+  </si>
+  <si>
+    <t>Atualizado em 2025-04-02</t>
   </si>
 </sst>
 </file>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,12 +867,6 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="13" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1440,7 +1434,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1466,7 +1460,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
@@ -1883,10 +1877,12 @@
       <c r="I15" s="14">
         <v>45740</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15" t="str">
+      <c r="J15" s="13">
+        <v>45749</v>
+      </c>
+      <c r="K15" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I15,'Controlador de projetos'!$J15)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I15,'Controlador de projetos'!$J15,FALSE)+1)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="L15" s="12"/>
     </row>
@@ -1916,10 +1912,12 @@
       <c r="I16" s="14">
         <v>45740</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="15" t="str">
+      <c r="J16" s="13">
+        <v>45744</v>
+      </c>
+      <c r="K16" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I16,'Controlador de projetos'!$J16)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I16,'Controlador de projetos'!$J16,FALSE)+1)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="L16" s="12"/>
     </row>
@@ -1949,16 +1947,18 @@
       <c r="I17" s="14">
         <v>45733</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="15" t="str">
+      <c r="J17" s="13">
+        <v>45744</v>
+      </c>
+      <c r="K17" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I17,'Controlador de projetos'!$J17)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I17,'Controlador de projetos'!$J17,FALSE)+1)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="30" customHeight="1">
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>37</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="19" spans="2:12" ht="30" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>35</v>
@@ -2014,19 +2014,21 @@
         <f>IF(COUNTA('Controlador de projetos'!$F19,'Controlador de projetos'!$G19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F19,'Controlador de projetos'!$G19,FALSE))</f>
         <v>12</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="14">
         <v>45736</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15" t="str">
+      <c r="J19" s="13">
+        <v>45739</v>
+      </c>
+      <c r="K19" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I19,'Controlador de projetos'!$J19)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I19,'Controlador de projetos'!$J19,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L19" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="2:12" ht="30" customHeight="1">
       <c r="B20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>32</v>
@@ -2037,7 +2039,7 @@
       <c r="E20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="14">
         <v>45742</v>
       </c>
       <c r="G20" s="13">
@@ -2047,19 +2049,21 @@
         <f>IF(COUNTA('Controlador de projetos'!$F20,'Controlador de projetos'!$G20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F20,'Controlador de projetos'!$G20,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="14">
         <v>45742</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="15" t="str">
+      <c r="J20" s="13">
+        <v>45744</v>
+      </c>
+      <c r="K20" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I20,'Controlador de projetos'!$J20)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I20,'Controlador de projetos'!$J20,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L20" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="2:12" ht="30" customHeight="1">
       <c r="B21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>34</v>
@@ -2070,7 +2074,7 @@
       <c r="E21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="14">
         <v>45742</v>
       </c>
       <c r="G21" s="13">
@@ -2080,19 +2084,21 @@
         <f>IF(COUNTA('Controlador de projetos'!$F21,'Controlador de projetos'!$G21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F21,'Controlador de projetos'!$G21,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="14">
         <v>45742</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="15" t="str">
+      <c r="J21" s="13">
+        <v>45744</v>
+      </c>
+      <c r="K21" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I21,'Controlador de projetos'!$J21)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I21,'Controlador de projetos'!$J21,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L21" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="2:12" ht="30" customHeight="1">
       <c r="B22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>33</v>
@@ -2103,7 +2109,7 @@
       <c r="E22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="14">
         <v>45742</v>
       </c>
       <c r="G22" s="13">
@@ -2113,19 +2119,21 @@
         <f>IF(COUNTA('Controlador de projetos'!$F22,'Controlador de projetos'!$G22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F22,'Controlador de projetos'!$G22,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="14">
         <v>45742</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="15" t="str">
+      <c r="J22" s="13">
+        <v>45744</v>
+      </c>
+      <c r="K22" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I22,'Controlador de projetos'!$J22)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I22,'Controlador de projetos'!$J22,FALSE))</f>
-        <v/>
-      </c>
-      <c r="L22" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="2:12" ht="42.5" customHeight="1">
       <c r="B23" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>35</v>
@@ -2488,7 +2496,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15AE6E-BCA6-4D28-920B-096678F0312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59696F0B-C7D4-4B13-87C5-623A5DA10A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24620" yWindow="4840" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24480" yWindow="3610" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Categoria</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Atualizado em 2025-04-02</t>
+  </si>
+  <si>
+    <t>Revisão de Organização do Documento - Conforme comentário Fase 2</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L36" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="B4:L36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ControladorDeProjetos" displayName="ControladorDeProjetos" ref="B4:L37" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B4:L37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" dataCellStyle="Texto"/>
     <tableColumn id="3" xr3:uid="{B833AB72-8646-4CE5-98B8-9D4D27103F03}" name="Responsável" dataCellStyle="Texto"/>
@@ -1430,11 +1433,11 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2189,17 +2192,21 @@
         <f>IF(COUNTA('Controlador de projetos'!$F24,'Controlador de projetos'!$G24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F24,'Controlador de projetos'!$G24,FALSE)+1)</f>
         <v>26</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="15" t="str">
+      <c r="I24" s="14">
+        <v>45777</v>
+      </c>
+      <c r="J24" s="13">
+        <v>45782</v>
+      </c>
+      <c r="K24" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I24,'Controlador de projetos'!$J24)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I24,'Controlador de projetos'!$J24,FALSE)+1)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1">
       <c r="B25" s="12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>36</v>
@@ -2208,7 +2215,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="13">
         <v>45747</v>
@@ -2217,29 +2224,33 @@
         <v>45772</v>
       </c>
       <c r="H25" s="19">
-        <f>IF(COUNTA('Controlador de projetos'!$F25,'Controlador de projetos'!$G25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F25,'Controlador de projetos'!$G25,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="15" t="str">
-        <f>IF(COUNTA('Controlador de projetos'!$I25,'Controlador de projetos'!$J25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I25,'Controlador de projetos'!$J25,FALSE)+1)</f>
-        <v/>
+        <f>IF(COUNTA('Controlador de projetos'!$F25,'Controlador de projetos'!$G25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F25,'Controlador de projetos'!$G25,FALSE))</f>
+        <v>25</v>
+      </c>
+      <c r="I25" s="14">
+        <v>45772</v>
+      </c>
+      <c r="J25" s="13">
+        <v>45776</v>
+      </c>
+      <c r="K25" s="15">
+        <f>IF(COUNTA('Controlador de projetos'!$I25,'Controlador de projetos'!$J25)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I25,'Controlador de projetos'!$J25,FALSE))</f>
+        <v>4</v>
       </c>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="2:12" ht="30" customHeight="1">
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="13">
         <v>45747</v>
@@ -2251,32 +2262,36 @@
         <f>IF(COUNTA('Controlador de projetos'!$F26,'Controlador de projetos'!$G26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F26,'Controlador de projetos'!$G26,FALSE)+1)</f>
         <v>26</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="15" t="str">
+      <c r="I26" s="14">
+        <v>45772</v>
+      </c>
+      <c r="J26" s="13">
+        <v>45777</v>
+      </c>
+      <c r="K26" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I26,'Controlador de projetos'!$J26)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I26,'Controlador de projetos'!$J26,FALSE)+1)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="L26" s="12"/>
     </row>
     <row r="27" spans="2:12" ht="30" customHeight="1">
       <c r="B27" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" s="13">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="G27" s="13">
-        <v>45800</v>
+        <v>45772</v>
       </c>
       <c r="H27" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F27,'Controlador de projetos'!$G27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F27,'Controlador de projetos'!$G27,FALSE)+1)</f>
@@ -2292,7 +2307,7 @@
     </row>
     <row r="28" spans="2:12" ht="30" customHeight="1">
       <c r="B28" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>36</v>
@@ -2301,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28" s="13">
         <v>45775</v>
@@ -2322,15 +2337,27 @@
       <c r="L28" s="12"/>
     </row>
     <row r="29" spans="2:12" ht="30" customHeight="1">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="19" t="str">
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45775</v>
+      </c>
+      <c r="G29" s="13">
+        <v>45800</v>
+      </c>
+      <c r="H29" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F29,'Controlador de projetos'!$G29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F29,'Controlador de projetos'!$G29,FALSE)+1)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="13"/>
@@ -2455,33 +2482,52 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="2:12" ht="30" customHeight="1">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="19" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$F36,'Controlador de projetos'!$G36)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F36,'Controlador de projetos'!$G36,FALSE)+1)</f>
         <v/>
       </c>
       <c r="I36" s="14"/>
-      <c r="J36" s="17"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="15" t="str">
         <f>IF(COUNTA('Controlador de projetos'!$I36,'Controlador de projetos'!$J36)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I36,'Controlador de projetos'!$J36,FALSE)+1)</f>
         <v/>
       </c>
-      <c r="L36" s="16"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="2:12" ht="30" customHeight="1">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="19" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$F37,'Controlador de projetos'!$G37)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F37,'Controlador de projetos'!$G37,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="15" t="str">
+        <f>IF(COUNTA('Controlador de projetos'!$I37,'Controlador de projetos'!$J37)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I37,'Controlador de projetos'!$J37,FALSE)+1)</f>
+        <v/>
+      </c>
+      <c r="L37" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K5:K36">
+  <conditionalFormatting sqref="K5:K37">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>(ABS((K5-H5))/H5)&gt;Sinalizador_Porcentagem</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" prompt="Insira projetos nesta planilha do controle de projetos. Defina a % acima/abaixo para sinalizar em D2. O trabalho real em horas e a duração real em dias destacarão valores acima/abaixo com negrito, fonte vermelha e um ícone de bandeira nas colunas K e M " sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E36" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Selecione uma categoria na lista ou crie uma nova categoria para exibir nesta lista da planilha Configuração." sqref="E5:E37" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Categoria_Lista</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Insira os nomes de projetos nesta coluna" sqref="B4:D4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -2511,13 +2557,13 @@
           <x14:formula1>
             <xm:f>Configuração!$D$5:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D36</xm:sqref>
+          <xm:sqref>D5:D37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9316C738-7C0B-41CA-ADB5-1A14C6ABE9FF}">
           <x14:formula1>
             <xm:f>Configuração!$C$5:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C5:C36</xm:sqref>
+          <xm:sqref>C5:C37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59696F0B-C7D4-4B13-87C5-623A5DA10A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437C366-D009-4014-9C70-6C7F6FBD997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="3610" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="4680" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controlador de projetos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="ColumnTitle1">'Controlador de projetos'!$B$4</definedName>
     <definedName name="ColumnTitle2">Tabela_de_categorias_e_funcionários[[#Headers],[Nome da Categoria]]</definedName>
     <definedName name="Funcionário_Lista">Configuração!$D$5:$D$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Controlador de projetos'!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Controlador de projetos'!$4:$4</definedName>
     <definedName name="Sinalizador_Porcentagem">'Controlador de projetos'!#REF!</definedName>
   </definedNames>
@@ -208,10 +208,10 @@
     <t>Produção de gráficos e tabelas</t>
   </si>
   <si>
-    <t>Atualizado em 2025-04-02</t>
-  </si>
-  <si>
     <t>Revisão de Organização do Documento - Conforme comentário Fase 2</t>
+  </si>
+  <si>
+    <t>Atualizado em 2025-05-05</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1463,7 +1463,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="25" spans="2:12" ht="30" customHeight="1">
       <c r="B25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>36</v>
@@ -2297,11 +2297,15 @@
         <f>IF(COUNTA('Controlador de projetos'!$F27,'Controlador de projetos'!$G27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F27,'Controlador de projetos'!$G27,FALSE)+1)</f>
         <v>26</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="15" t="str">
+      <c r="I27" s="14">
+        <v>45772</v>
+      </c>
+      <c r="J27" s="13">
+        <v>45782</v>
+      </c>
+      <c r="K27" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I27,'Controlador de projetos'!$J27)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I27,'Controlador de projetos'!$J27,FALSE)+1)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="L27" s="12"/>
     </row>
@@ -2542,7 +2546,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8437C366-D009-4014-9C70-6C7F6FBD997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21074EA4-01E9-4BF4-BF4C-C72023353D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="4680" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,7 +1437,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2326,17 +2326,21 @@
         <v>45775</v>
       </c>
       <c r="G28" s="13">
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="H28" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F28,'Controlador de projetos'!$G28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F28,'Controlador de projetos'!$G28,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="15" t="str">
+        <v>33</v>
+      </c>
+      <c r="I28" s="14">
+        <v>45804</v>
+      </c>
+      <c r="J28" s="13">
+        <v>45807</v>
+      </c>
+      <c r="K28" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I28,'Controlador de projetos'!$J28)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I28,'Controlador de projetos'!$J28,FALSE)+1)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="L28" s="12"/>
     </row>
@@ -2357,17 +2361,21 @@
         <v>45775</v>
       </c>
       <c r="G29" s="13">
-        <v>45800</v>
+        <v>228428</v>
       </c>
       <c r="H29" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F29,'Controlador de projetos'!$G29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F29,'Controlador de projetos'!$G29,FALSE)+1)</f>
-        <v>26</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="15" t="str">
+        <v>180033</v>
+      </c>
+      <c r="I29" s="14">
+        <v>45806</v>
+      </c>
+      <c r="J29" s="13">
+        <v>45807</v>
+      </c>
+      <c r="K29" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I29,'Controlador de projetos'!$J29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I29,'Controlador de projetos'!$J29,FALSE)+1)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L29" s="12"/>
     </row>

--- a/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
+++ b/DOCS/Cronograma_Turma_201825166.000.02_Grupo_Projeto_3_V00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Ricardo\Documents\ESTUDO\Mackenzie\02_Sem\PROJ_1\PROJETO\Projeto-Aplicado-1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21074EA4-01E9-4BF4-BF4C-C72023353D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACE3DDE-BD8A-491A-A944-F686385C2A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="4680" windowWidth="24940" windowHeight="22070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>Categoria</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Atualizado em 2025-05-05</t>
+  </si>
+  <si>
+    <t>Reorganização do repo</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1440,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1703,14 +1706,14 @@
         <v>3</v>
       </c>
       <c r="I10" s="21">
+        <v>45714</v>
+      </c>
+      <c r="J10" s="13">
         <v>45716</v>
-      </c>
-      <c r="J10" s="13">
-        <v>45714</v>
       </c>
       <c r="K10" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I10,'Controlador de projetos'!$J10)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I10,'Controlador de projetos'!$J10,FALSE)+1)</f>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12"/>
     </row>
@@ -2361,11 +2364,11 @@
         <v>45775</v>
       </c>
       <c r="G29" s="13">
-        <v>228428</v>
+        <v>45807</v>
       </c>
       <c r="H29" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F29,'Controlador de projetos'!$G29)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F29,'Controlador de projetos'!$G29,FALSE)+1)</f>
-        <v>180033</v>
+        <v>33</v>
       </c>
       <c r="I29" s="14">
         <v>45806</v>
@@ -2380,21 +2383,37 @@
       <c r="L29" s="12"/>
     </row>
     <row r="30" spans="2:12" ht="30" customHeight="1">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="19" t="str">
+      <c r="B30" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45802</v>
+      </c>
+      <c r="G30" s="13">
+        <v>45806</v>
+      </c>
+      <c r="H30" s="19">
         <f>IF(COUNTA('Controlador de projetos'!$F30,'Controlador de projetos'!$G30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$F30,'Controlador de projetos'!$G30,FALSE)+1)</f>
-        <v/>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="I30" s="14">
+        <v>45806</v>
+      </c>
+      <c r="J30" s="13">
+        <v>45806</v>
+      </c>
+      <c r="K30" s="15">
         <f>IF(COUNTA('Controlador de projetos'!$I30,'Controlador de projetos'!$J30)&lt;&gt;2,"",DAYS360('Controlador de projetos'!$I30,'Controlador de projetos'!$J30,FALSE)+1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L30" s="12"/>
     </row>
@@ -2554,7 +2573,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
